--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -451,855 +451,1155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3825</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>009164</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>009165</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010190</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>98.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>83.19</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001583</t>
+          <t>005267</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信新常态沪港深精选股票</t>
+          <t>嘉实价值精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>010273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>嘉实价值长青混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>501189</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>146.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>39.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1887</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>24.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008033</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加科盈混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008034</t>
+          <t>010190</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加科盈混合C</t>
+          <t>嘉实价值发现三个月定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1396</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>004355</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>嘉实丰和灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010190</t>
+          <t>010274</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
+          <t>嘉实价值长青混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010273</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合A</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.62</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010274</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合C</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.62</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501189</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.32</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007287</t>
+          <t>008033</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票A</t>
+          <t>中加科盈混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007288</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票C</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>008356</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>中加科丰价值精选混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>91.90</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.27</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005267</t>
+          <t>008034</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实价值精选股票</t>
+          <t>中加科盈混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004355</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实丰和灵活配置混合</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008356</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中加科丰价值精选混合</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22.83</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>4</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2386,25 +3066,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2414,26 +3104,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3112,7 +3113,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -3128,6 +3128,1088 @@
       </c>
       <c r="H40" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4215,4 +4216,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6471</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5184,4 +5185,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5193,7 +5194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5204,17 +5205,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5224,14 +5245,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.2</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5240,14 +5283,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.56</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5256,14 +5321,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.4</v>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5272,13 +5359,985 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4887</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6236,7 +6237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,17 +6248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6267,14 +6288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.93</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6283,14 +6326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.2</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6299,14 +6364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.56</v>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6315,14 +6402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.4</v>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6331,13 +6440,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6711,7 +6712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6722,17 +6723,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6742,14 +6763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.85</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6758,14 +6801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.93</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6774,14 +6839,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.2</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6790,14 +6877,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.56</v>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6806,14 +6915,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.4</v>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6822,13 +6953,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>9.359999999999999</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>15.85</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>23.93</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>27.56</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>25.4</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.41</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.33</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2851</t>
+          <t>2.8593</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8056</t>
+          <t>2.1601</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>22.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2515</t>
+          <t>1.0900</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8180</t>
+          <t>0.6484</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7554</t>
+          <t>0.4640</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2638</t>
+          <t>0.2278</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1788</t>
+          <t>0.1265</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +939,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3405,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4487,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6018,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002925-盈趣科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>9.359999999999999</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.85</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>23.93</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>24.2</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>27.56</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>25.4</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1188 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3825</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005267</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实价值精选股票</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.95</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8593</t>
+          <t>0.9116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010273</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.68</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>85.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1601</t>
+          <t>0.5711</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.02</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0900</t>
+          <t>0.4096</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,150 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.43</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6484</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4640</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010274</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1005,26 +2066,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.33</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2851</t>
+          <t>2.8593</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1043,26 +2104,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8056</t>
+          <t>2.1601</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1081,26 +2142,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>22.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2515</t>
+          <t>1.0900</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1109,36 +2170,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8180</t>
+          <t>0.6484</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1147,32 +2208,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7554</t>
+          <t>0.4640</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1195,26 +2256,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2638</t>
+          <t>0.2278</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1233,26 +2294,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1788</t>
+          <t>0.1265</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1261,6 +2322,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2776,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3744,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4826,7 +6209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6355,1162 +7738,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9647</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>141.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.9170</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6092</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3950</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3825</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010190</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8358</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8019</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5275</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5194</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2079</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1789</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>